--- a/Input_data/EST_US_trad_eco_cal_2025-01-06_to_2025-01-09.xlsx
+++ b/Input_data/EST_US_trad_eco_cal_2025-01-06_to_2025-01-09.xlsx
@@ -513,7 +513,11 @@
           <t>S&amp;P Global Composite PMI FinalDEC</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr"/>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>55.4</t>
+        </is>
+      </c>
       <c r="D4" t="inlineStr">
         <is>
           <t>54.9</t>
@@ -544,7 +548,11 @@
           <t>S&amp;P Global Services PMI FinalDEC</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr"/>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>56.8</t>
+        </is>
+      </c>
       <c r="D5" t="inlineStr">
         <is>
           <t>56.1</t>
@@ -575,10 +583,14 @@
           <t>Factory Orders MoMNOV</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr"/>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>-0.4%</t>
+        </is>
+      </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -606,10 +618,14 @@
           <t>Factory Orders ex TransportationNOV</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr"/>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="E7" t="inlineStr"/>
@@ -715,60 +731,64 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr"/>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>Total Vehicle SalesDEC</t>
-        </is>
-      </c>
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Tuesday January 07 2025</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr"/>
       <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>16.5M</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>16.5M</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>16.3M</t>
-        </is>
-      </c>
-      <c r="G12" t="n">
-        <v>3</v>
-      </c>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Tuesday January 07 2025</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr"/>
+          <t>08:00 AM</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Fed Barkin Speech</t>
+        </is>
+      </c>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr"/>
-      <c r="G13" t="inlineStr"/>
+      <c r="G13" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>08:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Fed Barkin Speech</t>
+          <t>Balance of TradeNOV</t>
         </is>
       </c>
       <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr"/>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>$-73.8B</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>$-78B</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>$-70B</t>
+        </is>
+      </c>
       <c r="G14" t="n">
         <v>2</v>
       </c>
@@ -781,23 +801,19 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Balance of TradeNOV</t>
+          <t>ExportsNOV</t>
         </is>
       </c>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr">
         <is>
-          <t>$-73.8B</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>$-78B</t>
-        </is>
-      </c>
+          <t>$265.7B</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr">
         <is>
-          <t>$-70B</t>
+          <t>$264B</t>
         </is>
       </c>
       <c r="G15" t="n">
@@ -812,19 +828,19 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>ExportsNOV</t>
+          <t>ImportsNOV</t>
         </is>
       </c>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr">
         <is>
-          <t>$265.7B</t>
+          <t>$339.6B</t>
         </is>
       </c>
       <c r="E16" t="inlineStr"/>
       <c r="F16" t="inlineStr">
         <is>
-          <t>$264B</t>
+          <t>$334B</t>
         </is>
       </c>
       <c r="G16" t="n">
@@ -834,51 +850,55 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>08:55 AM</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>ImportsNOV</t>
+          <t>Redbook YoYJAN/04</t>
         </is>
       </c>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr">
         <is>
-          <t>$339.6B</t>
+          <t>7.1%</t>
         </is>
       </c>
       <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>$334B</t>
-        </is>
-      </c>
+      <c r="F17" t="inlineStr"/>
       <c r="G17" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>08:55 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Redbook YoYJAN/04</t>
+          <t>ISM Services PMIDEC</t>
         </is>
       </c>
       <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr">
         <is>
-          <t>7.1%</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr"/>
+          <t>52.1</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
       <c r="G18" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
@@ -889,23 +909,23 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>ISM Services PMIDEC</t>
+          <t>JOLTs Job OpeningsNOV</t>
         </is>
       </c>
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr">
         <is>
-          <t>52.1</t>
+          <t>7.744M</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>7.70M</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>7.69M</t>
         </is>
       </c>
       <c r="G19" t="n">
@@ -920,27 +940,23 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>JOLTs Job OpeningsNOV</t>
+          <t>ISM Services Business ActivityDEC</t>
         </is>
       </c>
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr">
         <is>
-          <t>7.744M</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>7.70M</t>
-        </is>
-      </c>
+          <t>53.7</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr"/>
       <c r="F20" t="inlineStr">
         <is>
-          <t>7.69M</t>
+          <t>54.1</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21">
@@ -951,19 +967,19 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>ISM Services Business ActivityDEC</t>
+          <t>ISM Services EmploymentDEC</t>
         </is>
       </c>
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr">
         <is>
-          <t>53.7</t>
+          <t>51.5</t>
         </is>
       </c>
       <c r="E21" t="inlineStr"/>
       <c r="F21" t="inlineStr">
         <is>
-          <t>54.1</t>
+          <t>52</t>
         </is>
       </c>
       <c r="G21" t="n">
@@ -978,19 +994,19 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>ISM Services EmploymentDEC</t>
+          <t>ISM Services New OrdersDEC</t>
         </is>
       </c>
       <c r="C22" t="inlineStr"/>
       <c r="D22" t="inlineStr">
         <is>
-          <t>51.5</t>
+          <t>53.7</t>
         </is>
       </c>
       <c r="E22" t="inlineStr"/>
       <c r="F22" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>54.1</t>
         </is>
       </c>
       <c r="G22" t="n">
@@ -1005,19 +1021,19 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>ISM Services New OrdersDEC</t>
+          <t>ISM Services PricesDEC</t>
         </is>
       </c>
       <c r="C23" t="inlineStr"/>
       <c r="D23" t="inlineStr">
         <is>
-          <t>53.7</t>
+          <t>58.2</t>
         </is>
       </c>
       <c r="E23" t="inlineStr"/>
       <c r="F23" t="inlineStr">
         <is>
-          <t>54.1</t>
+          <t>58.4</t>
         </is>
       </c>
       <c r="G23" t="n">
@@ -1032,19 +1048,19 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>ISM Services PricesDEC</t>
+          <t>JOLTs Job QuitsNOV</t>
         </is>
       </c>
       <c r="C24" t="inlineStr"/>
       <c r="D24" t="inlineStr">
         <is>
-          <t>58.2</t>
+          <t>3.326M</t>
         </is>
       </c>
       <c r="E24" t="inlineStr"/>
       <c r="F24" t="inlineStr">
         <is>
-          <t>58.4</t>
+          <t>3.31M</t>
         </is>
       </c>
       <c r="G24" t="n">
@@ -1054,26 +1070,22 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>11:30 AM</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>JOLTs Job QuitsNOV</t>
+          <t>42-Day Bill Auction</t>
         </is>
       </c>
       <c r="C25" t="inlineStr"/>
       <c r="D25" t="inlineStr">
         <is>
-          <t>3.326M</t>
+          <t>4.280%</t>
         </is>
       </c>
       <c r="E25" t="inlineStr"/>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>3.31M</t>
-        </is>
-      </c>
+      <c r="F25" t="inlineStr"/>
       <c r="G25" t="n">
         <v>3</v>
       </c>
@@ -1081,18 +1093,18 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>11:30 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>42-Day Bill Auction</t>
+          <t>10-Year Note Auction</t>
         </is>
       </c>
       <c r="C26" t="inlineStr"/>
       <c r="D26" t="inlineStr">
         <is>
-          <t>4.280%</t>
+          <t>4.235%</t>
         </is>
       </c>
       <c r="E26" t="inlineStr"/>
@@ -1104,64 +1116,68 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>04:30 PM</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>10-Year Note Auction</t>
+          <t>API Crude Oil Stock ChangeJAN/03</t>
         </is>
       </c>
       <c r="C27" t="inlineStr"/>
       <c r="D27" t="inlineStr">
         <is>
-          <t>4.235%</t>
+          <t>-1.442M</t>
         </is>
       </c>
       <c r="E27" t="inlineStr"/>
       <c r="F27" t="inlineStr"/>
       <c r="G27" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>04:30 PM</t>
-        </is>
-      </c>
+      <c r="A28" t="inlineStr"/>
       <c r="B28" t="inlineStr">
         <is>
-          <t>API Crude Oil Stock ChangeJAN/03</t>
+          <t>LMI Logistics Managers IndexDEC</t>
         </is>
       </c>
       <c r="C28" t="inlineStr"/>
       <c r="D28" t="inlineStr">
         <is>
-          <t>-1.442M</t>
+          <t>58.4</t>
         </is>
       </c>
       <c r="E28" t="inlineStr"/>
       <c r="F28" t="inlineStr"/>
       <c r="G28" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr"/>
       <c r="B29" t="inlineStr">
         <is>
-          <t>LMI Logistics Managers IndexDEC</t>
+          <t>Total Vehicle SalesDEC</t>
         </is>
       </c>
       <c r="C29" t="inlineStr"/>
       <c r="D29" t="inlineStr">
         <is>
-          <t>58.4</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr"/>
-      <c r="F29" t="inlineStr"/>
+          <t>16.5M</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>16.5M</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>16.3M</t>
+        </is>
+      </c>
       <c r="G29" t="n">
         <v>3</v>
       </c>

--- a/Input_data/EST_US_trad_eco_cal_2025-01-06_to_2025-01-09.xlsx
+++ b/Input_data/EST_US_trad_eco_cal_2025-01-06_to_2025-01-09.xlsx
@@ -672,7 +672,11 @@
           <t>3-Month Bill Auction</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr"/>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>4.205%</t>
+        </is>
+      </c>
       <c r="D9" t="inlineStr">
         <is>
           <t>4.230%</t>
@@ -695,7 +699,11 @@
           <t>6-Month Bill Auction</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr"/>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>4.110%</t>
+        </is>
+      </c>
       <c r="D10" t="inlineStr">
         <is>
           <t>4.135%</t>

--- a/Input_data/EST_US_trad_eco_cal_2025-01-06_to_2025-01-09.xlsx
+++ b/Input_data/EST_US_trad_eco_cal_2025-01-06_to_2025-01-09.xlsx
@@ -726,7 +726,11 @@
           <t>3-Year Note Auction</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr"/>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>4.332%</t>
+        </is>
+      </c>
       <c r="D11" t="inlineStr">
         <is>
           <t>4.117%</t>

--- a/Input_data/EST_US_trad_eco_cal_2025-01-06_to_2025-01-09.xlsx
+++ b/Input_data/EST_US_trad_eco_cal_2025-01-06_to_2025-01-09.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G69"/>
+  <dimension ref="A1:G60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -486,53 +486,31 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>09:15 AM</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Fed Cook Speech</t>
-        </is>
-      </c>
+          <t>Tuesday January 07 2025</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr"/>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr"/>
-      <c r="G3" t="n">
-        <v>2</v>
-      </c>
+      <c r="G3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>09:45 AM</t>
+          <t>08:00 AM</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>S&amp;P Global Composite PMI FinalDEC</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>55.4</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>54.9</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>56.6</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>53</t>
-        </is>
-      </c>
+          <t>Fed Barkin Speech</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
       <c r="G4" t="n">
         <v>2</v>
       </c>
@@ -540,32 +518,28 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>09:45 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>S&amp;P Global Services PMI FinalDEC</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>56.8</t>
-        </is>
-      </c>
+          <t>Balance of TradeNOV</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr">
         <is>
-          <t>56.1</t>
+          <t>$-73.8B</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>58.5</t>
+          <t>$-78B</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>58.5</t>
+          <t>$-70B</t>
         </is>
       </c>
       <c r="G5" t="n">
@@ -575,32 +549,24 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Factory Orders MoMNOV</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>-0.4%</t>
-        </is>
-      </c>
+          <t>ExportsNOV</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>-0.3%</t>
-        </is>
-      </c>
+          <t>$265.7B</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>$264B</t>
         </is>
       </c>
       <c r="G6" t="n">
@@ -610,52 +576,48 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Factory Orders ex TransportationNOV</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+          <t>ImportsNOV</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>$339.6B</t>
         </is>
       </c>
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>$334B</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>08:55 AM</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>NY Fed Treasury Purchases 6 to 10 yrs</t>
+          <t>Redbook YoYJAN/04</t>
         </is>
       </c>
       <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>$25 million</t>
-        </is>
-      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>7.1%</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="n">
         <v>3</v>
@@ -664,80 +626,88 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>11:30 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>4.205%</t>
-        </is>
-      </c>
+          <t>ISM Services PMIDEC</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr">
         <is>
-          <t>4.230%</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr"/>
+          <t>52.1</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
       <c r="G9" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>11:30 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>6-Month Bill Auction</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>4.110%</t>
-        </is>
-      </c>
+          <t>JOLTs Job OpeningsNOV</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr">
         <is>
-          <t>4.135%</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr"/>
+          <t>7.744M</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>7.70M</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>7.69M</t>
+        </is>
+      </c>
       <c r="G10" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>3-Year Note Auction</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>4.332%</t>
-        </is>
-      </c>
+          <t>ISM Services Business ActivityDEC</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr">
         <is>
-          <t>4.117%</t>
+          <t>53.7</t>
         </is>
       </c>
       <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr"/>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>54.1</t>
+        </is>
+      </c>
       <c r="G11" t="n">
         <v>3</v>
       </c>
@@ -745,135 +715,149 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Tuesday January 07 2025</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr"/>
+          <t>10:00 AM</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>ISM Services EmploymentDEC</t>
+        </is>
+      </c>
       <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr"/>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>51.5</t>
+        </is>
+      </c>
       <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr"/>
-      <c r="G12" t="inlineStr"/>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>08:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Fed Barkin Speech</t>
+          <t>ISM Services New OrdersDEC</t>
         </is>
       </c>
       <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr"/>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>53.7</t>
+        </is>
+      </c>
       <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr"/>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>54.1</t>
+        </is>
+      </c>
       <c r="G13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Balance of TradeNOV</t>
+          <t>ISM Services PricesDEC</t>
         </is>
       </c>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr">
         <is>
-          <t>$-73.8B</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>$-78B</t>
-        </is>
-      </c>
+          <t>58.2</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr">
         <is>
-          <t>$-70B</t>
+          <t>58.4</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>ExportsNOV</t>
+          <t>JOLTs Job QuitsNOV</t>
         </is>
       </c>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr">
         <is>
-          <t>$265.7B</t>
+          <t>3.326M</t>
         </is>
       </c>
       <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr">
         <is>
-          <t>$264B</t>
+          <t>3.31M</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>11:30 AM</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>ImportsNOV</t>
+          <t>42-Day Bill Auction</t>
         </is>
       </c>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr">
         <is>
-          <t>$339.6B</t>
+          <t>4.280%</t>
         </is>
       </c>
       <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>$334B</t>
-        </is>
-      </c>
+      <c r="F16" t="inlineStr"/>
       <c r="G16" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>08:55 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Redbook YoYJAN/04</t>
+          <t>10-Year Note Auction</t>
         </is>
       </c>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr">
         <is>
-          <t>7.1%</t>
+          <t>4.235%</t>
         </is>
       </c>
       <c r="E17" t="inlineStr"/>
@@ -885,86 +869,66 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>04:30 PM</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>ISM Services PMIDEC</t>
+          <t>API Crude Oil Stock ChangeJAN/03</t>
         </is>
       </c>
       <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr">
         <is>
-          <t>52.1</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>53</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>54</t>
-        </is>
-      </c>
+          <t>-1.442M</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr"/>
       <c r="G18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
+      <c r="A19" t="inlineStr"/>
       <c r="B19" t="inlineStr">
         <is>
-          <t>JOLTs Job OpeningsNOV</t>
+          <t>LMI Logistics Managers IndexDEC</t>
         </is>
       </c>
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr">
         <is>
-          <t>7.744M</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>7.70M</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>7.69M</t>
-        </is>
-      </c>
+          <t>58.4</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr"/>
       <c r="G19" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
+      <c r="A20" t="inlineStr"/>
       <c r="B20" t="inlineStr">
         <is>
-          <t>ISM Services Business ActivityDEC</t>
+          <t>Total Vehicle SalesDEC</t>
         </is>
       </c>
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr">
         <is>
-          <t>53.7</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr"/>
+          <t>16.5M</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>16.5M</t>
+        </is>
+      </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>54.1</t>
+          <t>16.3M</t>
         </is>
       </c>
       <c r="G20" t="n">
@@ -974,80 +938,58 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>ISM Services EmploymentDEC</t>
-        </is>
-      </c>
+          <t>Wednesday January 08 2025</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr"/>
       <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>51.5</t>
-        </is>
-      </c>
+      <c r="D21" t="inlineStr"/>
       <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>52</t>
-        </is>
-      </c>
-      <c r="G21" t="n">
-        <v>3</v>
-      </c>
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>ISM Services New OrdersDEC</t>
+          <t>MBA 30-Year Mortgage RateJAN/03</t>
         </is>
       </c>
       <c r="C22" t="inlineStr"/>
       <c r="D22" t="inlineStr">
         <is>
-          <t>53.7</t>
+          <t>6.97%</t>
         </is>
       </c>
       <c r="E22" t="inlineStr"/>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>54.1</t>
-        </is>
-      </c>
+      <c r="F22" t="inlineStr"/>
       <c r="G22" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>ISM Services PricesDEC</t>
+          <t>MBA Mortgage ApplicationsJAN/03</t>
         </is>
       </c>
       <c r="C23" t="inlineStr"/>
       <c r="D23" t="inlineStr">
         <is>
-          <t>58.2</t>
+          <t>-12.6%</t>
         </is>
       </c>
       <c r="E23" t="inlineStr"/>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>58.4</t>
-        </is>
-      </c>
+      <c r="F23" t="inlineStr"/>
       <c r="G23" t="n">
         <v>3</v>
       </c>
@@ -1055,26 +997,22 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>JOLTs Job QuitsNOV</t>
+          <t>MBA Mortgage Market IndexJAN/03</t>
         </is>
       </c>
       <c r="C24" t="inlineStr"/>
       <c r="D24" t="inlineStr">
         <is>
-          <t>3.326M</t>
+          <t>174.9</t>
         </is>
       </c>
       <c r="E24" t="inlineStr"/>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>3.31M</t>
-        </is>
-      </c>
+      <c r="F24" t="inlineStr"/>
       <c r="G24" t="n">
         <v>3</v>
       </c>
@@ -1082,18 +1020,18 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>11:30 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>42-Day Bill Auction</t>
+          <t>MBA Mortgage Refinance IndexJAN/03</t>
         </is>
       </c>
       <c r="C25" t="inlineStr"/>
       <c r="D25" t="inlineStr">
         <is>
-          <t>4.280%</t>
+          <t>395.1</t>
         </is>
       </c>
       <c r="E25" t="inlineStr"/>
@@ -1105,18 +1043,18 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>10-Year Note Auction</t>
+          <t>MBA Purchase IndexJAN/03</t>
         </is>
       </c>
       <c r="C26" t="inlineStr"/>
       <c r="D26" t="inlineStr">
         <is>
-          <t>4.235%</t>
+          <t>136.7</t>
         </is>
       </c>
       <c r="E26" t="inlineStr"/>
@@ -1128,169 +1066,199 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
+          <t>08:15 AM</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>API Crude Oil Stock ChangeJAN/03</t>
+          <t>ADP Employment ChangeDEC</t>
         </is>
       </c>
       <c r="C27" t="inlineStr"/>
       <c r="D27" t="inlineStr">
         <is>
-          <t>-1.442M</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr"/>
-      <c r="F27" t="inlineStr"/>
+          <t>146K</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>139K</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>140K</t>
+        </is>
+      </c>
       <c r="G27" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="inlineStr"/>
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>08:30 AM</t>
+        </is>
+      </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>LMI Logistics Managers IndexDEC</t>
+          <t>Fed Waller Speech</t>
         </is>
       </c>
       <c r="C28" t="inlineStr"/>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>58.4</t>
-        </is>
-      </c>
+      <c r="D28" t="inlineStr"/>
       <c r="E28" t="inlineStr"/>
       <c r="F28" t="inlineStr"/>
       <c r="G28" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="inlineStr"/>
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>08:30 AM</t>
+        </is>
+      </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Total Vehicle SalesDEC</t>
+          <t>Initial Jobless ClaimsJAN/04</t>
         </is>
       </c>
       <c r="C29" t="inlineStr"/>
       <c r="D29" t="inlineStr">
         <is>
-          <t>16.5M</t>
+          <t>211K</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>16.5M</t>
+          <t>217K</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>16.3M</t>
+          <t>213K</t>
         </is>
       </c>
       <c r="G29" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Wednesday January 08 2025</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr"/>
+          <t>08:30 AM</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Continuing Jobless ClaimsDEC/28</t>
+        </is>
+      </c>
       <c r="C30" t="inlineStr"/>
-      <c r="D30" t="inlineStr"/>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>1844K</t>
+        </is>
+      </c>
       <c r="E30" t="inlineStr"/>
-      <c r="F30" t="inlineStr"/>
-      <c r="G30" t="inlineStr"/>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>1848K</t>
+        </is>
+      </c>
+      <c r="G30" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>MBA 30-Year Mortgage RateJAN/03</t>
+          <t>Jobless Claims 4-week AverageJAN/04</t>
         </is>
       </c>
       <c r="C31" t="inlineStr"/>
       <c r="D31" t="inlineStr">
         <is>
-          <t>6.97%</t>
+          <t>223.25K</t>
         </is>
       </c>
       <c r="E31" t="inlineStr"/>
-      <c r="F31" t="inlineStr"/>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>224K</t>
+        </is>
+      </c>
       <c r="G31" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>MBA Mortgage ApplicationsJAN/03</t>
+          <t>EIA Crude Oil Stocks ChangeJAN/03</t>
         </is>
       </c>
       <c r="C32" t="inlineStr"/>
       <c r="D32" t="inlineStr">
         <is>
-          <t>-12.6%</t>
+          <t>-1.178M</t>
         </is>
       </c>
       <c r="E32" t="inlineStr"/>
       <c r="F32" t="inlineStr"/>
       <c r="G32" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>MBA Mortgage Market IndexJAN/03</t>
+          <t>EIA Gasoline Stocks ChangeJAN/03</t>
         </is>
       </c>
       <c r="C33" t="inlineStr"/>
       <c r="D33" t="inlineStr">
         <is>
-          <t>174.9</t>
+          <t>7.717M</t>
         </is>
       </c>
       <c r="E33" t="inlineStr"/>
       <c r="F33" t="inlineStr"/>
       <c r="G33" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>MBA Mortgage Refinance IndexJAN/03</t>
+          <t>EIA Crude Oil Imports ChangeJAN/03</t>
         </is>
       </c>
       <c r="C34" t="inlineStr"/>
       <c r="D34" t="inlineStr">
         <is>
-          <t>395.1</t>
+          <t>0.323M</t>
         </is>
       </c>
       <c r="E34" t="inlineStr"/>
@@ -1302,18 +1270,18 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>MBA Purchase IndexJAN/03</t>
+          <t>EIA Cushing Crude Oil Stocks ChangeJAN/03</t>
         </is>
       </c>
       <c r="C35" t="inlineStr"/>
       <c r="D35" t="inlineStr">
         <is>
-          <t>136.7</t>
+          <t>-0.142M</t>
         </is>
       </c>
       <c r="E35" t="inlineStr"/>
@@ -1325,107 +1293,91 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>08:15 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>ADP Employment ChangeDEC</t>
+          <t>EIA Distillate Fuel Production ChangeJAN/03</t>
         </is>
       </c>
       <c r="C36" t="inlineStr"/>
       <c r="D36" t="inlineStr">
         <is>
-          <t>146K</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>139K</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>140K</t>
-        </is>
-      </c>
+          <t>0.099M</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr"/>
+      <c r="F36" t="inlineStr"/>
       <c r="G36" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Fed Waller Speech</t>
+          <t>EIA Distillate Stocks ChangeJAN/03</t>
         </is>
       </c>
       <c r="C37" t="inlineStr"/>
-      <c r="D37" t="inlineStr"/>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>6.406M</t>
+        </is>
+      </c>
       <c r="E37" t="inlineStr"/>
       <c r="F37" t="inlineStr"/>
       <c r="G37" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Initial Jobless ClaimsJAN/04</t>
+          <t>EIA Gasoline Production ChangeJAN/03</t>
         </is>
       </c>
       <c r="C38" t="inlineStr"/>
       <c r="D38" t="inlineStr">
         <is>
-          <t>211K</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>217K</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>213K</t>
-        </is>
-      </c>
+          <t>-0.959M</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr"/>
+      <c r="F38" t="inlineStr"/>
       <c r="G38" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Continuing Jobless ClaimsDEC/28</t>
+          <t>EIA Heating Oil Stocks ChangeJAN/03</t>
         </is>
       </c>
       <c r="C39" t="inlineStr"/>
       <c r="D39" t="inlineStr">
         <is>
-          <t>1844K</t>
+          <t>-0.416M</t>
         </is>
       </c>
       <c r="E39" t="inlineStr"/>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>1848K</t>
-        </is>
-      </c>
+      <c r="F39" t="inlineStr"/>
       <c r="G39" t="n">
         <v>3</v>
       </c>
@@ -1433,26 +1385,22 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Jobless Claims 4-week AverageJAN/04</t>
+          <t>EIA Refinery Crude Runs ChangeJAN/03</t>
         </is>
       </c>
       <c r="C40" t="inlineStr"/>
       <c r="D40" t="inlineStr">
         <is>
-          <t>223.25K</t>
+          <t>0.041M</t>
         </is>
       </c>
       <c r="E40" t="inlineStr"/>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>224K</t>
-        </is>
-      </c>
+      <c r="F40" t="inlineStr"/>
       <c r="G40" t="n">
         <v>3</v>
       </c>
@@ -1460,64 +1408,64 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>11:30 AM</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>EIA Crude Oil Stocks ChangeJAN/03</t>
+          <t>17-Week Bill Auction</t>
         </is>
       </c>
       <c r="C41" t="inlineStr"/>
       <c r="D41" t="inlineStr">
         <is>
-          <t>-1.178M</t>
+          <t>4.195%</t>
         </is>
       </c>
       <c r="E41" t="inlineStr"/>
       <c r="F41" t="inlineStr"/>
       <c r="G41" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>EIA Gasoline Stocks ChangeJAN/03</t>
+          <t>EIA Natural Gas Stocks ChangeJAN/03</t>
         </is>
       </c>
       <c r="C42" t="inlineStr"/>
       <c r="D42" t="inlineStr">
         <is>
-          <t>7.717M</t>
+          <t>-116Bcf</t>
         </is>
       </c>
       <c r="E42" t="inlineStr"/>
       <c r="F42" t="inlineStr"/>
       <c r="G42" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>EIA Crude Oil Imports ChangeJAN/03</t>
+          <t>30-Year Bond Auction</t>
         </is>
       </c>
       <c r="C43" t="inlineStr"/>
       <c r="D43" t="inlineStr">
         <is>
-          <t>0.323M</t>
+          <t>4.535%</t>
         </is>
       </c>
       <c r="E43" t="inlineStr"/>
@@ -1529,64 +1477,64 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>02:00 PM</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>EIA Cushing Crude Oil Stocks ChangeJAN/03</t>
+          <t>FOMC Minutes</t>
         </is>
       </c>
       <c r="C44" t="inlineStr"/>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>-0.142M</t>
-        </is>
-      </c>
+      <c r="D44" t="inlineStr"/>
       <c r="E44" t="inlineStr"/>
       <c r="F44" t="inlineStr"/>
       <c r="G44" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>03:00 PM</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>EIA Distillate Fuel Production ChangeJAN/03</t>
+          <t>Consumer Credit ChangeNOV</t>
         </is>
       </c>
       <c r="C45" t="inlineStr"/>
       <c r="D45" t="inlineStr">
         <is>
-          <t>0.099M</t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr"/>
-      <c r="F45" t="inlineStr"/>
+          <t>$19.24B</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>$12B</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>$14.0B</t>
+        </is>
+      </c>
       <c r="G45" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
+      <c r="A46" t="inlineStr"/>
       <c r="B46" t="inlineStr">
         <is>
-          <t>EIA Distillate Stocks ChangeJAN/03</t>
+          <t>Used Car Prices MoMDEC</t>
         </is>
       </c>
       <c r="C46" t="inlineStr"/>
       <c r="D46" t="inlineStr">
         <is>
-          <t>6.406M</t>
+          <t>1.3%</t>
         </is>
       </c>
       <c r="E46" t="inlineStr"/>
@@ -1596,20 +1544,16 @@
       </c>
     </row>
     <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
+      <c r="A47" t="inlineStr"/>
       <c r="B47" t="inlineStr">
         <is>
-          <t>EIA Gasoline Production ChangeJAN/03</t>
+          <t>Used Car Prices YoYDEC</t>
         </is>
       </c>
       <c r="C47" t="inlineStr"/>
       <c r="D47" t="inlineStr">
         <is>
-          <t>-0.959M</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="E47" t="inlineStr"/>
@@ -1621,45 +1565,39 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>EIA Heating Oil Stocks ChangeJAN/03</t>
-        </is>
-      </c>
+          <t>Thursday January 09 2025</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr"/>
       <c r="C48" t="inlineStr"/>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>-0.416M</t>
-        </is>
-      </c>
+      <c r="D48" t="inlineStr"/>
       <c r="E48" t="inlineStr"/>
       <c r="F48" t="inlineStr"/>
-      <c r="G48" t="n">
-        <v>3</v>
-      </c>
+      <c r="G48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>EIA Refinery Crude Runs ChangeJAN/03</t>
+          <t>Challenger Job CutsDEC</t>
         </is>
       </c>
       <c r="C49" t="inlineStr"/>
       <c r="D49" t="inlineStr">
         <is>
-          <t>0.041M</t>
+          <t>57.727K</t>
         </is>
       </c>
       <c r="E49" t="inlineStr"/>
-      <c r="F49" t="inlineStr"/>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>65K</t>
+        </is>
+      </c>
       <c r="G49" t="n">
         <v>3</v>
       </c>
@@ -1667,45 +1605,49 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>11:30 AM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>17-Week Bill Auction</t>
+          <t>Fed Harker Speech</t>
         </is>
       </c>
       <c r="C50" t="inlineStr"/>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>4.195%</t>
-        </is>
-      </c>
+      <c r="D50" t="inlineStr"/>
       <c r="E50" t="inlineStr"/>
       <c r="F50" t="inlineStr"/>
       <c r="G50" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>12:00 PM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>EIA Natural Gas Stocks ChangeJAN/03</t>
+          <t>Wholesale Inventories MoMNOV</t>
         </is>
       </c>
       <c r="C51" t="inlineStr"/>
       <c r="D51" t="inlineStr">
         <is>
-          <t>-116Bcf</t>
-        </is>
-      </c>
-      <c r="E51" t="inlineStr"/>
-      <c r="F51" t="inlineStr"/>
+          <t>0.1%</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>-0.2%</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>-0.2%</t>
+        </is>
+      </c>
       <c r="G51" t="n">
         <v>3</v>
       </c>
@@ -1713,21 +1655,21 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>30-Year Bond Auction</t>
+          <t>NY Fed Treasury Purchases 1 to 2.5 yrs</t>
         </is>
       </c>
       <c r="C52" t="inlineStr"/>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>4.535%</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr"/>
+      <c r="D52" t="inlineStr"/>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>$25 million</t>
+        </is>
+      </c>
       <c r="F52" t="inlineStr"/>
       <c r="G52" t="n">
         <v>3</v>
@@ -1736,64 +1678,64 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>02:00 PM</t>
+          <t>11:30 AM</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>FOMC Minutes</t>
+          <t>4-Week Bill Auction</t>
         </is>
       </c>
       <c r="C53" t="inlineStr"/>
-      <c r="D53" t="inlineStr"/>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>4.265%</t>
+        </is>
+      </c>
       <c r="E53" t="inlineStr"/>
       <c r="F53" t="inlineStr"/>
       <c r="G53" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>03:00 PM</t>
+          <t>11:30 AM</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Consumer Credit ChangeNOV</t>
+          <t>8-Week Bill Auction</t>
         </is>
       </c>
       <c r="C54" t="inlineStr"/>
       <c r="D54" t="inlineStr">
         <is>
-          <t>$19.24B</t>
-        </is>
-      </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>$12B</t>
-        </is>
-      </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>$14.0B</t>
-        </is>
-      </c>
+          <t>4.240%</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr"/>
+      <c r="F54" t="inlineStr"/>
       <c r="G54" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="55">
-      <c r="A55" t="inlineStr"/>
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>12:00 PM</t>
+        </is>
+      </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Used Car Prices MoMDEC</t>
+          <t>15-Year Mortgage RateJAN/09</t>
         </is>
       </c>
       <c r="C55" t="inlineStr"/>
       <c r="D55" t="inlineStr">
         <is>
-          <t>1.3%</t>
+          <t>6.13%</t>
         </is>
       </c>
       <c r="E55" t="inlineStr"/>
@@ -1803,16 +1745,20 @@
       </c>
     </row>
     <row r="56">
-      <c r="A56" t="inlineStr"/>
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>12:00 PM</t>
+        </is>
+      </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Used Car Prices YoYDEC</t>
+          <t>30-Year Mortgage RateJAN/09</t>
         </is>
       </c>
       <c r="C56" t="inlineStr"/>
       <c r="D56" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>6.91%</t>
         </is>
       </c>
       <c r="E56" t="inlineStr"/>
@@ -1824,52 +1770,50 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Thursday January 09 2025</t>
-        </is>
-      </c>
-      <c r="B57" t="inlineStr"/>
+          <t>12:40 PM</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Fed Barkin Speech</t>
+        </is>
+      </c>
       <c r="C57" t="inlineStr"/>
       <c r="D57" t="inlineStr"/>
       <c r="E57" t="inlineStr"/>
       <c r="F57" t="inlineStr"/>
-      <c r="G57" t="inlineStr"/>
+      <c r="G57" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>01:30 PM</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Challenger Job CutsDEC</t>
+          <t>Fed Schmid Speech</t>
         </is>
       </c>
       <c r="C58" t="inlineStr"/>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>57.727K</t>
-        </is>
-      </c>
+      <c r="D58" t="inlineStr"/>
       <c r="E58" t="inlineStr"/>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>65K</t>
-        </is>
-      </c>
+      <c r="F58" t="inlineStr"/>
       <c r="G58" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>01:35 PM</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Fed Harker Speech</t>
+          <t>Fed Bowman Speech</t>
         </is>
       </c>
       <c r="C59" t="inlineStr"/>
@@ -1883,226 +1827,23 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>04:30 PM</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Wholesale Inventories MoMNOV</t>
+          <t>Fed Balance SheetJAN/08</t>
         </is>
       </c>
       <c r="C60" t="inlineStr"/>
       <c r="D60" t="inlineStr">
         <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>-0.2%</t>
-        </is>
-      </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>-0.2%</t>
-        </is>
-      </c>
+          <t>$6.85T</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr"/>
+      <c r="F60" t="inlineStr"/>
       <c r="G60" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>NY Fed Treasury Purchases 1 to 2.5 yrs</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr"/>
-      <c r="D61" t="inlineStr"/>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>$25 million</t>
-        </is>
-      </c>
-      <c r="F61" t="inlineStr"/>
-      <c r="G61" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>11:30 AM</t>
-        </is>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>4-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr"/>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>4.265%</t>
-        </is>
-      </c>
-      <c r="E62" t="inlineStr"/>
-      <c r="F62" t="inlineStr"/>
-      <c r="G62" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>11:30 AM</t>
-        </is>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>8-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr"/>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>4.240%</t>
-        </is>
-      </c>
-      <c r="E63" t="inlineStr"/>
-      <c r="F63" t="inlineStr"/>
-      <c r="G63" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>12:00 PM</t>
-        </is>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>15-Year Mortgage RateJAN/09</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr"/>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>6.13%</t>
-        </is>
-      </c>
-      <c r="E64" t="inlineStr"/>
-      <c r="F64" t="inlineStr"/>
-      <c r="G64" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>12:00 PM</t>
-        </is>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>30-Year Mortgage RateJAN/09</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr"/>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>6.91%</t>
-        </is>
-      </c>
-      <c r="E65" t="inlineStr"/>
-      <c r="F65" t="inlineStr"/>
-      <c r="G65" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>12:40 PM</t>
-        </is>
-      </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>Fed Barkin Speech</t>
-        </is>
-      </c>
-      <c r="C66" t="inlineStr"/>
-      <c r="D66" t="inlineStr"/>
-      <c r="E66" t="inlineStr"/>
-      <c r="F66" t="inlineStr"/>
-      <c r="G66" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>01:30 PM</t>
-        </is>
-      </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>Fed Schmid Speech</t>
-        </is>
-      </c>
-      <c r="C67" t="inlineStr"/>
-      <c r="D67" t="inlineStr"/>
-      <c r="E67" t="inlineStr"/>
-      <c r="F67" t="inlineStr"/>
-      <c r="G67" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t>01:35 PM</t>
-        </is>
-      </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>Fed Bowman Speech</t>
-        </is>
-      </c>
-      <c r="C68" t="inlineStr"/>
-      <c r="D68" t="inlineStr"/>
-      <c r="E68" t="inlineStr"/>
-      <c r="F68" t="inlineStr"/>
-      <c r="G68" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="inlineStr">
-        <is>
-          <t>04:30 PM</t>
-        </is>
-      </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>Fed Balance SheetJAN/08</t>
-        </is>
-      </c>
-      <c r="C69" t="inlineStr"/>
-      <c r="D69" t="inlineStr">
-        <is>
-          <t>$6.85T</t>
-        </is>
-      </c>
-      <c r="E69" t="inlineStr"/>
-      <c r="F69" t="inlineStr"/>
-      <c r="G69" t="n">
         <v>3</v>
       </c>
     </row>

--- a/Input_data/EST_US_trad_eco_cal_2025-01-06_to_2025-01-09.xlsx
+++ b/Input_data/EST_US_trad_eco_cal_2025-01-06_to_2025-01-09.xlsx
@@ -642,7 +642,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>53.3</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -883,7 +883,11 @@
           <t>-1.442M</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr"/>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>-0.25M</t>
+        </is>
+      </c>
       <c r="F18" t="inlineStr"/>
       <c r="G18" t="n">
         <v>2</v>

--- a/Input_data/EST_US_trad_eco_cal_2025-01-06_to_2025-01-09.xlsx
+++ b/Input_data/EST_US_trad_eco_cal_2025-01-06_to_2025-01-09.xlsx
@@ -499,49 +499,43 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>08:00 AM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Fed Barkin Speech</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
+          <t>LMI Logistics Managers IndexDEC</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>57.3</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>58.4</t>
+        </is>
+      </c>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>08:00 AM</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Balance of TradeNOV</t>
+          <t>Fed Barkin Speech</t>
         </is>
       </c>
       <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>$-73.8B</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>$-78B</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>$-70B</t>
-        </is>
-      </c>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
       <c r="G5" t="n">
         <v>2</v>
       </c>
@@ -554,19 +548,23 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ExportsNOV</t>
+          <t>Balance of TradeNOV</t>
         </is>
       </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr">
         <is>
-          <t>$265.7B</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr"/>
+          <t>$-73.8B</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>$-78B</t>
+        </is>
+      </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>$264B</t>
+          <t>$-70B</t>
         </is>
       </c>
       <c r="G6" t="n">
@@ -581,19 +579,19 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ImportsNOV</t>
+          <t>ExportsNOV</t>
         </is>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr">
         <is>
-          <t>$339.6B</t>
+          <t>$265.7B</t>
         </is>
       </c>
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr">
         <is>
-          <t>$334B</t>
+          <t>$264B</t>
         </is>
       </c>
       <c r="G7" t="n">
@@ -603,55 +601,51 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>08:55 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Redbook YoYJAN/04</t>
+          <t>ImportsNOV</t>
         </is>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr">
         <is>
-          <t>7.1%</t>
+          <t>$339.6B</t>
         </is>
       </c>
       <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr"/>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>$334B</t>
+        </is>
+      </c>
       <c r="G8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>08:55 AM</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>ISM Services PMIDEC</t>
+          <t>Redbook YoYJAN/04</t>
         </is>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr">
         <is>
-          <t>52.1</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>53.3</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>54</t>
-        </is>
-      </c>
+          <t>7.1%</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr"/>
       <c r="G9" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10">
@@ -662,23 +656,23 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>JOLTs Job OpeningsNOV</t>
+          <t>ISM Services PMIDEC</t>
         </is>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr">
         <is>
-          <t>7.744M</t>
+          <t>52.1</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>7.70M</t>
+          <t>53.3</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>7.69M</t>
+          <t>54</t>
         </is>
       </c>
       <c r="G10" t="n">
@@ -693,23 +687,27 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>ISM Services Business ActivityDEC</t>
+          <t>JOLTs Job OpeningsNOV</t>
         </is>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr">
         <is>
-          <t>53.7</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr"/>
+          <t>7.744M</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>7.70M</t>
+        </is>
+      </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>54.1</t>
+          <t>7.69M</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
@@ -720,19 +718,19 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>ISM Services EmploymentDEC</t>
+          <t>ISM Services Business ActivityDEC</t>
         </is>
       </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr">
         <is>
-          <t>51.5</t>
+          <t>53.7</t>
         </is>
       </c>
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>54.1</t>
         </is>
       </c>
       <c r="G12" t="n">
@@ -747,19 +745,19 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>ISM Services New OrdersDEC</t>
+          <t>ISM Services EmploymentDEC</t>
         </is>
       </c>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr">
         <is>
-          <t>53.7</t>
+          <t>51.5</t>
         </is>
       </c>
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr">
         <is>
-          <t>54.1</t>
+          <t>52</t>
         </is>
       </c>
       <c r="G13" t="n">
@@ -774,19 +772,19 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>ISM Services PricesDEC</t>
+          <t>ISM Services New OrdersDEC</t>
         </is>
       </c>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr">
         <is>
-          <t>58.2</t>
+          <t>53.7</t>
         </is>
       </c>
       <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr">
         <is>
-          <t>58.4</t>
+          <t>54.1</t>
         </is>
       </c>
       <c r="G14" t="n">
@@ -801,19 +799,19 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>JOLTs Job QuitsNOV</t>
+          <t>ISM Services PricesDEC</t>
         </is>
       </c>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr">
         <is>
-          <t>3.326M</t>
+          <t>58.2</t>
         </is>
       </c>
       <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr">
         <is>
-          <t>3.31M</t>
+          <t>58.4</t>
         </is>
       </c>
       <c r="G15" t="n">
@@ -823,22 +821,26 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>11:30 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>42-Day Bill Auction</t>
+          <t>JOLTs Job QuitsNOV</t>
         </is>
       </c>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr">
         <is>
-          <t>4.280%</t>
+          <t>3.326M</t>
         </is>
       </c>
       <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr"/>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.31M</t>
+        </is>
+      </c>
       <c r="G16" t="n">
         <v>3</v>
       </c>
@@ -846,18 +848,18 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>11:30 AM</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>10-Year Note Auction</t>
+          <t>42-Day Bill Auction</t>
         </is>
       </c>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr">
         <is>
-          <t>4.235%</t>
+          <t>4.280%</t>
         </is>
       </c>
       <c r="E17" t="inlineStr"/>
@@ -869,47 +871,51 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>API Crude Oil Stock ChangeJAN/03</t>
+          <t>10-Year Note Auction</t>
         </is>
       </c>
       <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr">
         <is>
-          <t>-1.442M</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>-0.25M</t>
-        </is>
-      </c>
+          <t>4.235%</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr"/>
       <c r="F18" t="inlineStr"/>
       <c r="G18" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr"/>
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>04:30 PM</t>
+        </is>
+      </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>LMI Logistics Managers IndexDEC</t>
+          <t>API Crude Oil Stock ChangeJAN/03</t>
         </is>
       </c>
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr">
         <is>
-          <t>58.4</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr"/>
+          <t>-1.442M</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>-0.25M</t>
+        </is>
+      </c>
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20">
@@ -1086,7 +1092,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>139K</t>
+          <t>140K</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -1136,7 +1142,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>217K</t>
+          <t>218K</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -1165,7 +1171,11 @@
           <t>1844K</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr"/>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>1870K</t>
+        </is>
+      </c>
       <c r="F30" t="inlineStr">
         <is>
           <t>1848K</t>
